--- a/biology/Botanique/Turnera_guianensis/Turnera_guianensis.xlsx
+++ b/biology/Botanique/Turnera_guianensis/Turnera_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turnera guianensis est une espèce de plantes à fleurs de la famille des Passifloraceae (anciennement des Turneraceae). C'est un arbrisseau trouvé en Amérique.
-On la connaît sous le nom de Sauce au Venezuela[2].
+On la connaît sous le nom de Sauce au Venezuela.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Turnera guianensis est une plante herbacée graminoïde, haute de 10–70 cm, entièrement glabre, à tiges grêles, dressées, longitudinalement striées, à base ramifiée, devenant ligneuse.
 Les feuilles sont espacées, avec le limbe aigu, étroitement linéaire, long de 1-6(7) cm pour 1-3 mm de largeur au maximum (les supérieures beaucoup plus petites en bractéoles portant les fleurs), à marges entière ou dentée, avec 1 paire de glandes discoïdes basales[Quoi ?], mesurant 20-70 x 1-3 mm. 
@@ -532,7 +546,7 @@
 Le style est glabre, long de 1,6-1,8 mm chez les fleurs brévistylées, et de 7 mm chez les fleurs longistylées.
 Les fruits sont des capsules sub-globuleuses[Quoi ?], sub-glabres[Quoi ?] et lisses, mesurant 4-5 mm de diamètre, dépassant les bractéoles persistantes.
 Les graines sont longues de 1,6-1,8 mm pour 0,9-1,0 mm de diamètre, alvéolées, et le bord des alvéoles nettement gibbeux, avec une strophiole étroite, deux fois moins longue que la graine
-[2],[3],[4],[5].
+.
 </t>
         </is>
       </c>
@@ -561,9 +575,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Turnera guianensis est présent à Trinidad, au Venezuela (Bolívar, Amazonas, Anzoategui, Apure, Guarico, Monagas), au Guyana, au Suriname, en Guyane[3],[4], en Colombie amazonienne, et au nord du Brésil[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turnera guianensis est présent à Trinidad, au Venezuela (Bolívar, Amazonas, Anzoategui, Apure, Guarico, Monagas), au Guyana, au Suriname, en Guyane en Colombie amazonienne, et au nord du Brésil.
 </t>
         </is>
       </c>
@@ -592,10 +608,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Turnera guianensis pousse dans les savanes humides sur sol à engorgé jusqu'à la surface[pas clair][3], autour de 50–300 m d'altitude au Venezuela[2].
-En Guyane, Turnera guianensis fleurit de mai à décembre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turnera guianensis pousse dans les savanes humides sur sol à engorgé jusqu'à la surface[pas clair], autour de 50–300 m d'altitude au Venezuela.
+En Guyane, Turnera guianensis fleurit de mai à décembre.
 </t>
         </is>
       </c>
@@ -624,7 +642,9 @@
           <t>Protologues</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>En 1775, le botaniste Aublet propose le protologue suivant pour Turnera guianensis Aubl. :
 « 3. TURNERA (Guianenſis). foliis linearibus, ſerratis ; floribus ſpicatis. (Tabula 114.)
@@ -643,7 +663,7 @@
 J'ai trouvé cette plante dans les ſavanes marécageuſes de Timoutou.
 Elle étoit en fleur &amp; en fruit dans le mois d'Avril.
 On a un peu groſſi les parties de la fructification avec une étamine. Les autres détails ſont de grandeur naturelle. »
-— Fusée-Aublet, 1775[6].</t>
+— Fusée-Aublet, 1775.</t>
         </is>
       </c>
     </row>
